--- a/Дмитрий Бычков.xlsx
+++ b/Дмитрий Бычков.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +33,7 @@
     <font>
       <b val="1"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,10 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,75 +439,243 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Отчет Январь 2022г.</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Бычков Дмитрий.</t>
+        </is>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Образцы</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Баллы</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Бьютидрагс, Образцы, Разработка новых подставок, ТЗ 7СФ</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -3</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы, Шелфтокеры Redken 2022, ТЗ 225СФ</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Задания</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ дисплеев для сети РИВ ГОШ, 412-8 КК</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
+    </row>
     <row r="21">
-      <c r="A21" s="2" t="n"/>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
     </row>
     <row r="22"/>
-    <row r="23"/>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+    </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-    </row>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
+      <c r="A24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n"/>
+    </row>
     <row r="58"/>
     <row r="59"/>
     <row r="60"/>

--- a/Дмитрий Бычков.xlsx
+++ b/Дмитрий Бычков.xlsx
@@ -441,7 +441,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Отчет Январь 2022г.</t>
+          <t>Отчет Декабрь 2021г.</t>
         </is>
       </c>
     </row>
@@ -468,17 +468,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Бьютидрагс, Образцы, Разработка новых подставок, ТЗ 7СФ</t>
+          <t>Градиент, образцы-эталоны BB7000111, 301-6 КК</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -3</t>
+          <t>Градиент, образцы дисплеев и поддонов ВС для сети РИВ ГОШ, 412-5 КК</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
@@ -488,73 +488,126 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образцы, Шелфтокеры Redken 2022, ТЗ 225СФ</t>
+          <t>Градиент, образцы кассет Стеллари, 376-1 КК</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец стрйп-лены BB7000111, 301-4 КК</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, заготовки для выкрасов BB7000111, 301-3 КК + цветопробы</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Сумма</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-    </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>БХК " Коломенский", образец , контейнер, № 136-1 ЮО</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Задания</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n"/>
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны BB7000111, 301-5 КК</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Градиент, РМ дисплеев для сети РИВ ГОШ, 412-8 КК</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n"/>
+          <t>Дека, изготовление игрушек, 39МК, Образец</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы, Запрос Kerastase - ценникодержатели, ТЗ 224СФ-1</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-6 КК</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Нинель, Образец, Модуль № 170 ЧЯ-1</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Нинель, Образец, Модуль № 170 ЧЯ</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы дисплеев и поддонов ВС для сети РИВ ГОШ, 412-3 КК</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n"/>
@@ -566,34 +619,76 @@
       <c r="C20" s="3" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Задания</t>
+        </is>
+      </c>
       <c r="B21" s="3" t="n"/>
       <c r="C21" s="3" t="n"/>
     </row>
-    <row r="22"/>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>S813000386 Тест Градиент 3КФ</t>
+        </is>
+      </c>
+    </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Полимакс, Р.М., Деталь, 44МК</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Барьер, Р.М.,Демонстратор, 42МК</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>БХК " Коломенский", РМ , контейнер, № 136-2 ЮО</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, РМ, Шелфтокеры Redken 2022, ТЗ 225СФ-1</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Эль Пако, РМ, паразит № 142 ЮО</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, РМ, Запрос Kerastase - ценникодержатели, ТЗ 224СФ</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Спортмастер, РМ, дисплеи, № 139 ЮО</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, изменения в МП, заказ 703 КК</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n"/>
